--- a/URS/DbLayouts/L8-遵循法令作業/JcicZ046.xlsx
+++ b/URS/DbLayouts/L8-遵循法令作業/JcicZ046.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L8-遵循法令作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L8-遵循法令作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1EAC7C4-752E-48C2-B8D9-C26497648E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11FA78E-F945-4A82-8262-CDC7E1171AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="4" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="78">
   <si>
     <t>讀取Key條件</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -280,19 +280,10 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>CustIdEq</t>
-  </si>
-  <si>
     <t>CustId=</t>
   </si>
   <si>
-    <t>RcDateEq</t>
-  </si>
-  <si>
     <t>RcDate=</t>
-  </si>
-  <si>
-    <t>CustRcEq</t>
   </si>
   <si>
     <t>CustId= , AND RcDate=</t>
@@ -345,10 +336,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>HadZ046</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>CustId= , AND RcDate= , AND SubmitKey=</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -399,6 +386,30 @@
   <si>
     <t>SubmitKey,CustId,RcDate,CloseDate</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>custIdEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>rcDateEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>custRcEq</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>hadZ046</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>custIdFirst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>RcDate DESC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -988,7 +999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -1037,10 +1048,10 @@
       </c>
       <c r="B3" s="25"/>
       <c r="C3" s="18" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
@@ -1150,7 +1161,7 @@
       </c>
       <c r="F10" s="21"/>
       <c r="G10" s="18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H10" s="19"/>
       <c r="I10" s="19"/>
@@ -1167,14 +1178,14 @@
         <v>21</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E11" s="21">
         <v>3</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="18" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
@@ -1213,7 +1224,7 @@
         <v>33</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E13" s="21">
         <v>8</v>
@@ -1242,7 +1253,7 @@
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H14" s="19"/>
       <c r="I14" s="19"/>
@@ -1266,7 +1277,7 @@
       </c>
       <c r="F15" s="21"/>
       <c r="G15" s="18" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="19"/>
@@ -1283,7 +1294,7 @@
         <v>37</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E16" s="21">
         <v>8</v>
@@ -1321,10 +1332,10 @@
         <v>9</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D18" s="18" t="s">
         <v>20</v>
@@ -2038,9 +2049,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
@@ -2066,76 +2077,87 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
